--- a/sql/sample-data.xlsx
+++ b/sql/sample-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttontoey/Documents/db-sys-bookbook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttontoey/Documents/db-sys-bookbook/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B5B6E9-5B28-3245-8427-87198D0D97D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88D498-505D-3547-9A16-F0F6B92B258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="9" activeTab="21" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
   </bookViews>
   <sheets>
     <sheet name="userinformation" sheetId="21" r:id="rId1"/>
@@ -22,19 +22,18 @@
     <sheet name="sellercontact" sheetId="6" r:id="rId7"/>
     <sheet name="admin" sheetId="7" r:id="rId8"/>
     <sheet name="admincontact" sheetId="8" r:id="rId9"/>
-    <sheet name="bookinformation" sheetId="22" r:id="rId10"/>
-    <sheet name="book" sheetId="9" r:id="rId11"/>
-    <sheet name="bookgenre" sheetId="10" r:id="rId12"/>
-    <sheet name="booktag" sheetId="11" r:id="rId13"/>
-    <sheet name="sellpost" sheetId="12" r:id="rId14"/>
-    <sheet name="specialdescription" sheetId="13" r:id="rId15"/>
-    <sheet name="damage" sheetId="14" r:id="rId16"/>
-    <sheet name="transaction" sheetId="15" r:id="rId17"/>
+    <sheet name="bookgenre" sheetId="10" r:id="rId10"/>
+    <sheet name="booktag" sheetId="11" r:id="rId11"/>
+    <sheet name="specialdescription" sheetId="13" r:id="rId12"/>
+    <sheet name="damage" sheetId="14" r:id="rId13"/>
+    <sheet name="book" sheetId="9" r:id="rId14"/>
+    <sheet name="sellpost" sheetId="12" r:id="rId15"/>
+    <sheet name="transaction" sheetId="15" r:id="rId16"/>
+    <sheet name="payment" sheetId="17" r:id="rId17"/>
     <sheet name="evidence" sheetId="16" r:id="rId18"/>
-    <sheet name="payment" sheetId="17" r:id="rId19"/>
-    <sheet name="shipment" sheetId="18" r:id="rId20"/>
-    <sheet name="searchhistory" sheetId="19" r:id="rId21"/>
-    <sheet name="message" sheetId="20" r:id="rId22"/>
+    <sheet name="shipment" sheetId="18" r:id="rId19"/>
+    <sheet name="searchhistory" sheetId="19" r:id="rId20"/>
+    <sheet name="message" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="334">
   <si>
     <t>userId</t>
   </si>
@@ -189,33 +188,15 @@
     <t>78590657fe72bb2e9d87a3f4f89d47e48ecd28dd42660c0c1c7ddb3ac286825f</t>
   </si>
   <si>
-    <t>2004-02-09</t>
-  </si>
-  <si>
-    <t>2004-02-10</t>
-  </si>
-  <si>
     <t>2004-02-11</t>
   </si>
   <si>
-    <t>2004-02-12</t>
-  </si>
-  <si>
     <t>2004-02-13</t>
   </si>
   <si>
-    <t>2004-02-14</t>
-  </si>
-  <si>
     <t>2004-02-15</t>
   </si>
   <si>
-    <t>2004-02-16</t>
-  </si>
-  <si>
-    <t>2004-02-17</t>
-  </si>
-  <si>
     <t>1112223334444</t>
   </si>
   <si>
@@ -270,33 +251,9 @@
     <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777069</t>
   </si>
   <si>
-    <t>2024-08-09 20:00:00</t>
-  </si>
-  <si>
     <t>2024-11-09 20:00:00</t>
   </si>
   <si>
-    <t>2024-08-19 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-02-23 20:00:00</t>
-  </si>
-  <si>
-    <t>2023-05-09 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-04-09 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-09-01 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-10-13 20:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-29 20:00:00</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -327,9 +284,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Telepathy</t>
   </si>
   <si>
@@ -387,12 +341,6 @@
     <t>Romance</t>
   </si>
   <si>
-    <t>Poetry</t>
-  </si>
-  <si>
-    <t>Young Adult</t>
-  </si>
-  <si>
     <t>Dystopian</t>
   </si>
   <si>
@@ -486,18 +434,6 @@
     <t>markthitrin</t>
   </si>
   <si>
-    <t>2023-10-19 20:00:00</t>
-  </si>
-  <si>
-    <t>2023-07-09 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-05-11 20:00:00</t>
-  </si>
-  <si>
-    <t>2024-05-13 20:00:00</t>
-  </si>
-  <si>
     <t>3000-01-01</t>
   </si>
   <si>
@@ -537,12 +473,6 @@
     <t>somying@bookbook.co.th</t>
   </si>
   <si>
-    <t>1999-02-10</t>
-  </si>
-  <si>
-    <t>1899-02-10</t>
-  </si>
-  <si>
     <t>4112223334444</t>
   </si>
   <si>
@@ -579,9 +509,6 @@
     <t>isApproved</t>
   </si>
   <si>
-    <t>approvedBy</t>
-  </si>
-  <si>
     <t>addedBy</t>
   </si>
   <si>
@@ -681,15 +608,9 @@
     <t>Courseville, a town in the northern part of Algoland, is now haunted with undeads. Can Fred and his colleagues survive this?</t>
   </si>
   <si>
-    <t>9783161484100</t>
-  </si>
-  <si>
     <t>9783161484101</t>
   </si>
   <si>
-    <t>9783139393932</t>
-  </si>
-  <si>
     <t>1783161483222</t>
   </si>
   <si>
@@ -717,9 +638,6 @@
     <t>การออกแบบเว็บพนัน</t>
   </si>
   <si>
-    <t>เสี่ยต้นเตย</t>
-  </si>
-  <si>
     <t>การออกแบบเว็บพนันให้ได้กำไรมากที่สุด พร้อมความน่าจะเป็นเบื้องต้นที่ใช้โกงผู้พนัน เผยเคล็ดลับเปิดยังไงไม่ให้โดนจับ !</t>
   </si>
   <si>
@@ -780,57 +698,12 @@
     <t>New Release</t>
   </si>
   <si>
-    <t>2024-11-10 21:00:00</t>
-  </si>
-  <si>
-    <t>2024-11-10 22:30:00</t>
-  </si>
-  <si>
-    <t>2024-11-11 06:00:00</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>2024-11-10 19:30:00</t>
-  </si>
-  <si>
-    <t>2024-11-10 12:30:00</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
     <t>Author Signature</t>
   </si>
   <si>
-    <t>Limited Edition</t>
-  </si>
-  <si>
-    <t>Special Cover Art</t>
-  </si>
-  <si>
     <t>9229291484107</t>
   </si>
   <si>
-    <t>9783811484400</t>
-  </si>
-  <si>
     <t>3363161484150</t>
   </si>
   <si>
@@ -861,9 +734,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>isPaid</t>
-  </si>
-  <si>
     <t>paidOn</t>
   </si>
   <si>
@@ -900,21 +770,9 @@
     <t>text</t>
   </si>
   <si>
-    <t>2024-12-10 00:30:00</t>
-  </si>
-  <si>
-    <t>2024-12-10 08:40:00</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>2024-12-10 00:20:00</t>
-  </si>
-  <si>
-    <t>2024-12-10 00:10:00</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -924,9 +782,6 @@
     <t>Bank Transfer</t>
   </si>
   <si>
-    <t>2024-12-10 00:25:00</t>
-  </si>
-  <si>
     <t>cee6465f26714a5463a1bd4f8ba3ae0a</t>
   </si>
   <si>
@@ -987,36 +842,9 @@
     <t>NoSQL Database</t>
   </si>
   <si>
-    <t>2024-12-10 08:30:00</t>
-  </si>
-  <si>
-    <t>2024-12-10 08:32:00</t>
-  </si>
-  <si>
-    <t>ต่อยป่าว</t>
-  </si>
-  <si>
-    <t>สวัสดีวันจันทร์</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>2024-12-10 08:20:00</t>
-  </si>
-  <si>
-    <t>2024-12-10 08:20:14</t>
-  </si>
-  <si>
-    <t>ขอดูรูปเพิ่มเติม</t>
-  </si>
-  <si>
-    <t>2024-12-10 08:33:00</t>
-  </si>
-  <si>
-    <t>2024-12-10 08:36:00</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -1032,12 +860,6 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>2003-02-24</t>
-  </si>
-  <si>
-    <t>2003-02-02</t>
-  </si>
-  <si>
     <t>Children's Literature</t>
   </si>
   <si>
@@ -1051,13 +873,196 @@
   </si>
   <si>
     <t>sender</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777070</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777071</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777072</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777073</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777074</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777075</t>
+  </si>
+  <si>
+    <t>https://cdn.anime-planet.com/characters/primary/hamtaro-1.jpg?t=1625777076</t>
+  </si>
+  <si>
+    <t>1997-04-16</t>
+  </si>
+  <si>
+    <t>1975-06-22</t>
+  </si>
+  <si>
+    <t>1955-03-23</t>
+  </si>
+  <si>
+    <t>1990-01-06</t>
+  </si>
+  <si>
+    <t>1963-05-01</t>
+  </si>
+  <si>
+    <t>2005-04-03</t>
+  </si>
+  <si>
+    <t>2001-02-17</t>
+  </si>
+  <si>
+    <t>1999-01-20</t>
+  </si>
+  <si>
+    <t>1994-06-10</t>
+  </si>
+  <si>
+    <t>1997-02-10</t>
+  </si>
+  <si>
+    <t>3663161484100</t>
+  </si>
+  <si>
+    <t>4783139393932</t>
+  </si>
+  <si>
+    <t>5783811484400</t>
+  </si>
+  <si>
+    <t>2024-11-11 20:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>mark888.com บาคาร่า</t>
+  </si>
+  <si>
+    <t>2024-11-12 20:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-11 22:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-12 22:00:00</t>
+  </si>
+  <si>
+    <t>moderatedBy</t>
+  </si>
+  <si>
+    <t>เสี่ย Mark</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>เทรนเนอร์ Suchart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อยากลดน้ำหนัก? หนังสือเล่มนี้คือคำตอบของคุณ ! </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>เรื่องราวเกี่ยวกับ Margaret และทีมวิจัย ที่ต้องผลิตวัคซีนต่อต้านซอมบี้สุดน่าสะพรึง</t>
+  </si>
+  <si>
+    <t>บี. เค. โรลลิ่ง</t>
+  </si>
+  <si>
+    <t>2024-11-12 06:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-12 18:00:00</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2024-11-13 12:00:00</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>2024-11-14 18:00:00</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2024-11-13 14:00:00</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Spooky</t>
+  </si>
+  <si>
+    <t>Town Spook</t>
+  </si>
+  <si>
+    <t>Pooky Town</t>
+  </si>
+  <si>
+    <t>ไพ่ยิบซี</t>
+  </si>
+  <si>
+    <t>ดูดวงงง</t>
+  </si>
+  <si>
+    <t>2024-11-13 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-13 11:01:00</t>
+  </si>
+  <si>
+    <t>2024-11-13 13:00:00</t>
+  </si>
+  <si>
+    <t>ขอดูรูปเล่ม Spooky</t>
+  </si>
+  <si>
+    <t>ว้าว</t>
+  </si>
+  <si>
+    <t>ขอบคุณครับ</t>
+  </si>
+  <si>
+    <t>เว็บพนัน mark888.com ฝากถอน โอนไว</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,12 +1083,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF474747"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1107,12 +1106,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,11 +1429,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D67B75-98A3-3A42-9533-87172308BA2F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1459,7 +1461,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1471,15 +1473,15 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1491,15 +1493,15 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1511,15 +1513,15 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1531,15 +1533,15 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1551,15 +1553,15 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1571,15 +1573,15 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1591,15 +1593,15 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1611,15 +1613,15 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1631,165 +1633,389 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>274</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>64</v>
+      <c r="E12" t="s">
+        <v>276</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>279</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>160</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
+      </c>
+      <c r="E16" t="s">
+        <v>280</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546AC5E7-7838-4C4A-AADA-CE7FB513F6A1}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C0B36-F6CB-2344-8815-DF17CEF01D95}">
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" t="s">
-        <v>168</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1798,633 +2024,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B177C0-130C-ED49-AFE8-3D1705AB6953}">
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2:F3 F5:F8 F9" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1C0B36-F6CB-2344-8815-DF17CEF01D95}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBDA5D7-CBF2-B743-A882-55FA5818C396}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2436,10 +2035,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2447,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2455,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2487,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2495,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2503,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2511,7 +2110,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2519,7 +2118,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2535,12 +2134,566 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F17CA1-5308-8949-B393-C02DFB0758CB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDDA3B7-7904-894C-B049-686320A0EAEA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B177C0-130C-ED49-AFE8-3D1705AB6953}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BF8082-BFB1-0A44-AB0E-04E157F29C00}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2551,25 +2704,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2577,22 +2730,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2600,22 +2753,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2623,22 +2776,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2646,22 +2799,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2669,22 +2822,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>248</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2692,22 +2845,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2715,22 +2868,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2749,281 +2902,265 @@
     <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F17CA1-5308-8949-B393-C02DFB0758CB}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35092F04-8AB1-5542-8E1E-C036E832A375}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDDA3B7-7904-894C-B049-686320A0EAEA}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92718C27-8B02-8045-A2D7-FF1ABDC52011}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35092F04-8AB1-5542-8E1E-C036E832A375}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H4" t="s">
-        <v>322</v>
-      </c>
-      <c r="I4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" t="s">
-        <v>322</v>
-      </c>
-      <c r="I5" t="s">
-        <v>322</v>
+        <v>241</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3033,10 +3170,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1321F-EE90-4148-A6C8-C22E5449D41F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3047,111 +3184,125 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92718C27-8B02-8045-A2D7-FF1ABDC52011}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3161,7 +3312,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3171,7 +3322,7 @@
     <col min="3" max="3" width="69.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3189,7 +3340,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>9</v>
@@ -3203,7 +3354,7 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
@@ -3212,24 +3363,24 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -3238,24 +3389,24 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
@@ -3264,24 +3415,24 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>37</v>
@@ -3290,24 +3441,24 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
@@ -3316,24 +3467,24 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>39</v>
@@ -3342,24 +3493,24 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>40</v>
@@ -3368,24 +3519,24 @@
         <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>41</v>
@@ -3394,24 +3545,24 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
@@ -3420,20 +3571,23 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G14" s="2"/>
@@ -3456,46 +3610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E147E3A-BB3A-F34C-90FA-1985554C94F6}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E147E3A-BB3A-F34C-90FA-1985554C94F6}">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3505,82 +3624,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3588,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3596,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3604,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3620,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3628,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3636,7 +3755,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3644,7 +3763,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3652,7 +3771,47 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3660,12 +3819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C78963-1353-8046-9C2D-C8E136DEA44C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3676,31 +3835,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="I1" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,28 +3867,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="I2" t="s">
-        <v>329</v>
+        <v>262</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3737,28 +3896,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I3" t="s">
-        <v>329</v>
+        <v>263</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3769,25 +3925,25 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I4" t="s">
-        <v>329</v>
+        <v>262</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3798,25 +3954,141 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" t="s">
-        <v>330</v>
+      <c r="D6" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3851,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3859,7 +4131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3867,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3875,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3883,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3891,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3907,7 +4179,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3915,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3923,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3931,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3939,7 +4211,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3947,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3955,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3965,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE95BE8-3592-CB49-B38E-803BB742286B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3978,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3986,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3994,68 +4266,199 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>113</v>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27026C4-5368-7143-8601-D9B584B375FF}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4065,12 +4468,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4078,7 +4481,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4086,50 +4489,594 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="B9">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4139,18 +5086,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C467EC5-7B90-7243-B4DD-E06C7A236BC3}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +5113,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -4173,141 +5122,156 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>266</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4324,10 +5288,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45597351-1F61-5A4E-A3EE-C66ACF6231A8}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4340,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +5336,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +5368,15 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4417,12 +5389,13 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="61.83203125" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4456,25 +5429,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4482,25 +5455,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4530,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4538,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4546,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/sql/sample-data.xlsx
+++ b/sql/sample-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttontoey/Documents/db-sys-bookbook/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88D498-505D-3547-9A16-F0F6B92B258F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CC269-9631-044E-A2E3-AE5868AB01D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" firstSheet="4" activeTab="6" xr2:uid="{F431DE53-69A8-9647-BE0C-224C100AC897}"/>
   </bookViews>
   <sheets>
     <sheet name="userinformation" sheetId="21" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="booktag" sheetId="11" r:id="rId11"/>
     <sheet name="specialdescription" sheetId="13" r:id="rId12"/>
     <sheet name="damage" sheetId="14" r:id="rId13"/>
-    <sheet name="book" sheetId="9" r:id="rId14"/>
-    <sheet name="sellpost" sheetId="12" r:id="rId15"/>
-    <sheet name="transaction" sheetId="15" r:id="rId16"/>
-    <sheet name="payment" sheetId="17" r:id="rId17"/>
-    <sheet name="evidence" sheetId="16" r:id="rId18"/>
-    <sheet name="shipment" sheetId="18" r:id="rId19"/>
-    <sheet name="searchhistory" sheetId="19" r:id="rId20"/>
-    <sheet name="message" sheetId="20" r:id="rId21"/>
+    <sheet name="Sheet2" sheetId="23" r:id="rId14"/>
+    <sheet name="book" sheetId="9" r:id="rId15"/>
+    <sheet name="sellpost" sheetId="12" r:id="rId16"/>
+    <sheet name="transaction" sheetId="15" r:id="rId17"/>
+    <sheet name="payment" sheetId="17" r:id="rId18"/>
+    <sheet name="evidence" sheetId="16" r:id="rId19"/>
+    <sheet name="shipment" sheetId="18" r:id="rId20"/>
+    <sheet name="searchhistory" sheetId="19" r:id="rId21"/>
+    <sheet name="message" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1429,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D67B75-98A3-3A42-9533-87172308BA2F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2170,7 +2171,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2207,6 +2208,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5FB002-B3F4-2546-B152-F114059A6A04}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B177C0-130C-ED49-AFE8-3D1705AB6953}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -2688,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BF8082-BFB1-0A44-AB0E-04E157F29C00}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -2907,7 +2920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35092F04-8AB1-5542-8E1E-C036E832A375}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -3081,7 +3094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92718C27-8B02-8045-A2D7-FF1ABDC52011}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3168,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1321F-EE90-4148-A6C8-C22E5449D41F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3212,93 +3225,6 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3610,6 +3536,93 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD335A9-7158-F04B-A211-9B5A45EC1C02}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E147E3A-BB3A-F34C-90FA-1985554C94F6}">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -3819,7 +3832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C78963-1353-8046-9C2D-C8E136DEA44C}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -5290,7 +5303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45597351-1F61-5A4E-A3EE-C66ACF6231A8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
